--- a/AAII_Financials/Yearly/CTVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CTVA_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
   <si>
     <t>CTVA</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,38 +665,39 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -706,24 +707,27 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>14136000</v>
+        <v>13846000</v>
       </c>
       <c r="E8" s="3">
+        <v>14287000</v>
+      </c>
+      <c r="F8" s="3">
         <v>14091000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13896000</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -733,24 +737,27 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>8415000</v>
+        <v>8575000</v>
       </c>
       <c r="E9" s="3">
+        <v>9948000</v>
+      </c>
+      <c r="F9" s="3">
         <v>8292000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8283000</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -760,24 +767,27 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>5721000</v>
+        <v>5271000</v>
       </c>
       <c r="E10" s="3">
+        <v>4339000</v>
+      </c>
+      <c r="F10" s="3">
         <v>5799000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5613000</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -787,9 +797,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -801,23 +814,24 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1432000</v>
+        <v>1147000</v>
       </c>
       <c r="E12" s="3">
+        <v>1355000</v>
+      </c>
+      <c r="F12" s="3">
         <v>1509000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1507000</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -827,9 +841,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,24 +871,27 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5768000</v>
+        <v>915000</v>
       </c>
       <c r="E14" s="3">
+        <v>6208000</v>
+      </c>
+      <c r="F14" s="3">
         <v>488000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>527000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -881,24 +901,27 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>475000</v>
+      </c>
+      <c r="E15" s="3">
         <v>391000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>270000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>247000</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
       </c>
@@ -908,9 +931,12 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -919,23 +945,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18873000</v>
+        <v>14177000</v>
       </c>
       <c r="E17" s="3">
+        <v>20943000</v>
+      </c>
+      <c r="F17" s="3">
         <v>13503000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13474000</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -945,24 +972,27 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-4737000</v>
+        <v>-331000</v>
       </c>
       <c r="E18" s="3">
+        <v>-6656000</v>
+      </c>
+      <c r="F18" s="3">
         <v>588000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>422000</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -972,9 +1002,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -986,23 +1019,24 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>249000</v>
+        <v>151000</v>
       </c>
       <c r="E20" s="3">
+        <v>187000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-899000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-73000</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1012,20 +1046,23 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-4488000</v>
+        <v>1419000</v>
       </c>
       <c r="E21" s="3">
-        <v>-311000</v>
-      </c>
-      <c r="F21" s="3">
-        <v>349000</v>
+        <v>-3679000</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1039,24 +1076,27 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>76000</v>
+        <v>136000</v>
       </c>
       <c r="E22" s="3">
+        <v>337000</v>
+      </c>
+      <c r="F22" s="3">
         <v>74000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>101000</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1066,24 +1106,27 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4564000</v>
+        <v>-316000</v>
       </c>
       <c r="E23" s="3">
+        <v>-6806000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-385000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>248000</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1093,24 +1136,27 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>406000</v>
+        <v>-46000</v>
       </c>
       <c r="E24" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-2946000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-273000</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1120,9 +1166,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,24 +1196,27 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4970000</v>
+        <v>-270000</v>
       </c>
       <c r="E26" s="3">
+        <v>-6775000</v>
+      </c>
+      <c r="F26" s="3">
         <v>2561000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>521000</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1174,24 +1226,27 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4999000</v>
+        <v>-288000</v>
       </c>
       <c r="E27" s="3">
+        <v>-6813000</v>
+      </c>
+      <c r="F27" s="3">
         <v>2526000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>496000</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1201,9 +1256,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,36 +1286,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-671000</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+        <v>1748000</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,9 +1346,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,24 +1376,27 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-249000</v>
+        <v>-151000</v>
       </c>
       <c r="E32" s="3">
+        <v>-187000</v>
+      </c>
+      <c r="F32" s="3">
         <v>899000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>73000</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1336,24 +1406,27 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4999000</v>
+        <v>-959000</v>
       </c>
       <c r="E33" s="3">
+        <v>-5065000</v>
+      </c>
+      <c r="F33" s="3">
         <v>2526000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>496000</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1363,9 +1436,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,24 +1466,27 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4999000</v>
+        <v>-959000</v>
       </c>
       <c r="E35" s="3">
+        <v>-5065000</v>
+      </c>
+      <c r="F35" s="3">
         <v>2526000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>496000</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1417,29 +1496,32 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1449,9 +1531,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1463,8 +1548,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1476,17 +1562,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1764000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2270000</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1502,17 +1589,20 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
         <v>5000</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
+      <c r="E42" s="3">
+        <v>5000</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1529,18 +1619,21 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5528000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5260000</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1556,17 +1649,20 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10560000</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
+        <v>5032000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>5310000</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -1583,18 +1679,21 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1190000</v>
+      </c>
+      <c r="E45" s="3">
         <v>10127000</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1610,18 +1709,21 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13519000</v>
+      </c>
+      <c r="E46" s="3">
         <v>22972000</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1637,18 +1739,21 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E47" s="3">
         <v>138000</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1664,17 +1769,20 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9077000</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
+        <v>5101000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4544000</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1691,17 +1799,20 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>34303000</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
+        <v>21653000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>22248000</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1718,9 +1829,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,9 +1859,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,18 +1889,21 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2058000</v>
+      </c>
+      <c r="E52" s="3">
         <v>58781000</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1799,9 +1919,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,18 +1949,21 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>42397000</v>
+      </c>
+      <c r="E54" s="3">
         <v>108683000</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1853,9 +1979,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1867,8 +1996,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1880,17 +2010,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3702000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3798000</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1906,17 +2037,20 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4043000</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+        <v>7000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2154000</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -1933,18 +2067,21 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4529000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7358000</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
       </c>
@@ -1960,18 +2097,21 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8238000</v>
+      </c>
+      <c r="E60" s="3">
         <v>13310000</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
       </c>
@@ -1987,18 +2127,21 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5784000</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2014,18 +2157,21 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9489000</v>
+      </c>
+      <c r="E62" s="3">
         <v>8952000</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2041,9 +2187,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,9 +2217,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,9 +2247,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,18 +2277,21 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18088000</v>
+      </c>
+      <c r="E66" s="3">
         <v>34023000</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2149,9 +2307,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2163,8 +2324,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,9 +2351,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,9 +2381,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,9 +2411,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,36 +2441,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>-425000</v>
       </c>
       <c r="E72" s="3">
         <v>0</v>
       </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,9 +2501,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,9 +2531,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,18 +2561,21 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>24309000</v>
+      </c>
+      <c r="E76" s="3">
         <v>74660000</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2405,9 +2591,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,29 +2621,32 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2464,24 +2656,27 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4999000</v>
+        <v>-959000</v>
       </c>
       <c r="E81" s="3">
+        <v>-5065000</v>
+      </c>
+      <c r="F81" s="3">
         <v>2526000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>496000</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,9 +2686,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2505,35 +2703,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>1599000</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
+        <v>2790000</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,9 +2760,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,9 +2790,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,9 +2820,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,9 +2850,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,36 +2880,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>1070000</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+        <v>483000</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2707,35 +2927,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-1163000</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-1501000</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,9 +2984,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,36 +3014,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-904000</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
+        <v>-505000</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2828,13 +3061,14 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-194000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -2854,9 +3088,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,9 +3118,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,9 +3148,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,88 +3178,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-2929000</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
+        <v>-2624000</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-88000</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
+        <v>-244000</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-2851000</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3"/>
+        <v>-2890000</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CTVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CTVA_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,42 +665,42 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,27 +710,30 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>14217000</v>
+      </c>
+      <c r="E8" s="3">
         <v>13846000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14287000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14091000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13896000</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -740,27 +743,30 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>8507000</v>
+      </c>
+      <c r="E9" s="3">
         <v>8575000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9948000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8292000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8283000</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -770,27 +776,30 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>5710000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5271000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4339000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5799000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5613000</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -800,9 +809,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -815,26 +827,27 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1142000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1147000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1355000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1509000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1507000</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -844,9 +857,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -874,27 +890,30 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>337000</v>
+      </c>
+      <c r="E14" s="3">
         <v>915000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6208000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>488000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>527000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -904,27 +923,30 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>682000</v>
+      </c>
+      <c r="E15" s="3">
         <v>475000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>391000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>270000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>247000</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
@@ -934,9 +956,12 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -946,26 +971,27 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13711000</v>
+      </c>
+      <c r="E17" s="3">
         <v>14177000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>20943000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13503000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13474000</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -975,27 +1001,30 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>506000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-331000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6656000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>588000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>422000</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1005,9 +1034,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1020,26 +1052,27 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E20" s="3">
         <v>151000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>187000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-899000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-73000</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1049,21 +1082,24 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1897000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1419000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3679000</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1079,27 +1115,30 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E22" s="3">
         <v>136000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>337000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>74000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>101000</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1109,27 +1148,30 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>675000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-316000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6806000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-385000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>248000</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1139,27 +1181,30 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-46000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-31000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2946000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-273000</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1169,9 +1214,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1199,27 +1247,30 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>756000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-270000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6775000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2561000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>521000</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1229,27 +1280,30 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>736000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-288000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6813000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2526000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>496000</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1259,9 +1313,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1289,21 +1346,24 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-671000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>1748000</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1316,12 +1376,15 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1349,9 +1412,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1379,27 +1445,30 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-214000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-151000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-187000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>899000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>73000</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1409,27 +1478,30 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>681000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-959000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5065000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2526000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>496000</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1439,9 +1511,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1469,27 +1544,30 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>681000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-959000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5065000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2526000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>496000</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1499,32 +1577,35 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1534,9 +1615,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1549,8 +1633,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1563,20 +1648,21 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3526000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1764000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2270000</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1592,20 +1678,23 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5000</v>
+        <v>269000</v>
       </c>
       <c r="E42" s="3">
         <v>5000</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+      <c r="F42" s="3">
+        <v>5000</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1622,21 +1711,24 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4926000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5528000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5260000</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1652,21 +1744,24 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4882000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5032000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5310000</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1682,21 +1777,24 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1165000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1190000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10127000</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1712,21 +1810,24 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14768000</v>
+      </c>
+      <c r="E46" s="3">
         <v>13519000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>22972000</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1742,9 +1843,12 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1752,11 +1856,11 @@
         <v>66000</v>
       </c>
       <c r="E47" s="3">
+        <v>66000</v>
+      </c>
+      <c r="F47" s="3">
         <v>138000</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1772,21 +1876,24 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4917000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5101000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4544000</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1802,21 +1909,24 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>21016000</v>
+      </c>
+      <c r="E49" s="3">
         <v>21653000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>22248000</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1832,9 +1942,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1862,9 +1975,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1892,21 +2008,24 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1882000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2058000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>58781000</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1922,9 +2041,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1952,21 +2074,24 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>42649000</v>
+      </c>
+      <c r="E54" s="3">
         <v>42397000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>108683000</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1982,9 +2107,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1997,8 +2125,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2011,20 +2140,21 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3615000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3702000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3798000</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2040,21 +2170,24 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E58" s="3">
         <v>7000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2154000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2070,21 +2203,24 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4930000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4529000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7358000</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,21 +2236,24 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8548000</v>
+      </c>
+      <c r="E60" s="3">
         <v>8238000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13310000</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2130,21 +2269,24 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1102000</v>
+      </c>
+      <c r="E61" s="3">
         <v>115000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5784000</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2160,21 +2302,24 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7936000</v>
+      </c>
+      <c r="E62" s="3">
         <v>9489000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8952000</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,9 +2335,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2220,9 +2368,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2250,9 +2401,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2280,21 +2434,24 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17825000</v>
+      </c>
+      <c r="E66" s="3">
         <v>18088000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>34023000</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2310,9 +2467,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2325,8 +2485,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2354,9 +2515,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2384,9 +2548,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2414,9 +2581,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2444,20 +2614,23 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
         <v>-425000</v>
       </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+      <c r="F72" s="3">
+        <v>0</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2471,12 +2644,15 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2504,9 +2680,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2534,9 +2713,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2564,21 +2746,24 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>24824000</v>
+      </c>
+      <c r="E76" s="3">
         <v>24309000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>74660000</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2594,9 +2779,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2624,32 +2812,35 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2659,27 +2850,30 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>681000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-959000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5065000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2526000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>496000</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2689,9 +2883,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2704,20 +2901,21 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1177000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1599000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2790000</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,9 +2931,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2763,9 +2964,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2793,9 +2997,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2823,9 +3030,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2853,9 +3063,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2883,21 +3096,24 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2064000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1070000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>483000</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2910,12 +3126,15 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2928,20 +3147,21 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-475000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1163000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1501000</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2954,12 +3174,15 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2987,9 +3210,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3017,21 +3243,24 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-674000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-904000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-505000</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3047,9 +3276,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3062,17 +3294,18 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-388000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-194000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -3091,9 +3324,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3121,9 +3357,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3151,9 +3390,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3181,21 +3423,24 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>303000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2929000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2624000</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3211,21 +3456,24 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-88000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-244000</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3241,21 +3489,24 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1700000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2851000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2890000</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3268,10 +3519,13 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CTVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CTVA_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,45 +665,45 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -713,30 +713,33 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>15655000</v>
+      </c>
+      <c r="E8" s="3">
         <v>14217000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13846000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14287000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14091000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13896000</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -746,30 +749,33 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>9220000</v>
+      </c>
+      <c r="E9" s="3">
         <v>8507000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8575000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9948000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8292000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8283000</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -779,30 +785,33 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>6435000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5710000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5271000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4339000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5799000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5613000</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -812,9 +821,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -828,29 +840,30 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1187000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1142000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1147000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1355000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1509000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1507000</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -860,9 +873,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -893,30 +909,33 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>268000</v>
+      </c>
+      <c r="E14" s="3">
         <v>337000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>915000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6208000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>488000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>527000</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -926,30 +945,33 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>722000</v>
+      </c>
+      <c r="E15" s="3">
         <v>682000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>475000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>391000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>270000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>247000</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
@@ -959,9 +981,12 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -972,29 +997,30 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14606000</v>
+      </c>
+      <c r="E17" s="3">
         <v>13711000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14177000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>20943000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13503000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13474000</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1004,30 +1030,33 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1049000</v>
+      </c>
+      <c r="E18" s="3">
         <v>506000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-331000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6656000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>588000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>422000</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1037,9 +1066,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,29 +1085,30 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1327000</v>
+      </c>
+      <c r="E20" s="3">
         <v>214000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>151000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>187000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-899000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-73000</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1085,24 +1118,27 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3619000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1897000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1419000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3679000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1118,30 +1154,33 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E22" s="3">
         <v>45000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>136000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>337000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>74000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>101000</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1151,30 +1190,33 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2346000</v>
+      </c>
+      <c r="E23" s="3">
         <v>675000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-316000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6806000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-385000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>248000</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,30 +1226,33 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>524000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-81000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-46000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-31000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2946000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-273000</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1217,9 +1262,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1250,30 +1298,33 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1822000</v>
+      </c>
+      <c r="E26" s="3">
         <v>756000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-270000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6775000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2561000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>521000</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1283,30 +1334,33 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1812000</v>
+      </c>
+      <c r="E27" s="3">
         <v>736000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-288000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6813000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2526000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>496000</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1316,9 +1370,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1349,24 +1406,27 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-55000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-671000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>1748000</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1379,12 +1439,15 @@
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1415,9 +1478,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1448,30 +1514,33 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1327000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-214000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-151000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-187000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>899000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>73000</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1481,30 +1550,33 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1759000</v>
+      </c>
+      <c r="E33" s="3">
         <v>681000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-959000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5065000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2526000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>496000</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1514,9 +1586,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1547,30 +1622,33 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1759000</v>
+      </c>
+      <c r="E35" s="3">
         <v>681000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-959000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5065000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2526000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>496000</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1580,35 +1658,38 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1618,9 +1699,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1634,8 +1718,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1649,23 +1734,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4459000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3526000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1764000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2270000</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1681,23 +1767,26 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E42" s="3">
         <v>269000</v>
-      </c>
-      <c r="E42" s="3">
-        <v>5000</v>
       </c>
       <c r="F42" s="3">
         <v>5000</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+      <c r="G42" s="3">
+        <v>5000</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1714,24 +1803,27 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4811000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4926000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5528000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5260000</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1747,24 +1839,27 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5180000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4882000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5032000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5310000</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1780,24 +1875,27 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1010000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1165000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1190000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10127000</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1813,24 +1911,27 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15546000</v>
+      </c>
+      <c r="E46" s="3">
         <v>14768000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13519000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>22972000</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1846,24 +1947,27 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>66000</v>
+        <v>76000</v>
       </c>
       <c r="E47" s="3">
         <v>66000</v>
       </c>
       <c r="F47" s="3">
+        <v>66000</v>
+      </c>
+      <c r="G47" s="3">
         <v>138000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,24 +1983,27 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4787000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4917000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5101000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4544000</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1912,24 +2019,27 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>20151000</v>
+      </c>
+      <c r="E49" s="3">
         <v>21016000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>21653000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>22248000</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1945,9 +2055,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1978,9 +2091,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2011,24 +2127,27 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1784000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1882000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2058000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>58781000</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2044,9 +2163,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2077,24 +2199,27 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>42344000</v>
+      </c>
+      <c r="E54" s="3">
         <v>42649000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>42397000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>108683000</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2110,9 +2235,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2126,8 +2254,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2141,23 +2270,24 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4126000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3615000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3702000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3798000</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2173,24 +2303,27 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2154000</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2206,24 +2339,27 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5415000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4930000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4529000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7358000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2239,24 +2375,27 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9558000</v>
+      </c>
+      <c r="E60" s="3">
         <v>8548000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8238000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13310000</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2272,24 +2411,27 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1100000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1102000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>115000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5784000</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2305,24 +2447,27 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6063000</v>
+      </c>
+      <c r="E62" s="3">
         <v>7936000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9489000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8952000</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2338,9 +2483,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2371,9 +2519,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2404,9 +2555,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2437,24 +2591,27 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16960000</v>
+      </c>
+      <c r="E66" s="3">
         <v>17825000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>18088000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>34023000</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,9 +2627,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2486,8 +2646,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2518,9 +2679,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2551,9 +2715,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2584,9 +2751,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2617,23 +2787,26 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>524000</v>
       </c>
       <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
         <v>-425000</v>
       </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+      <c r="G72" s="3">
+        <v>0</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2647,12 +2820,15 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2683,9 +2859,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2716,9 +2895,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2749,24 +2931,27 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25384000</v>
+      </c>
+      <c r="E76" s="3">
         <v>24824000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>24309000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>74660000</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2782,9 +2967,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2815,35 +3003,38 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2853,30 +3044,33 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1759000</v>
+      </c>
+      <c r="E81" s="3">
         <v>681000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-959000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5065000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2526000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>496000</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2886,9 +3080,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2902,23 +3099,24 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1243000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1177000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1599000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2790000</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2934,9 +3132,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2967,9 +3168,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3000,9 +3204,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3033,9 +3240,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3066,9 +3276,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3099,24 +3312,27 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2727000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2064000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1070000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>483000</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3129,12 +3345,15 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3148,23 +3367,24 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-573000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-475000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1163000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1501000</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3177,12 +3397,15 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3213,9 +3436,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3246,24 +3472,27 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-362000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-674000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-904000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-505000</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3279,9 +3508,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3295,20 +3527,21 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-397000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-388000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-194000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -3327,9 +3560,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3360,9 +3596,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3393,9 +3632,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3426,24 +3668,27 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1266000</v>
+      </c>
+      <c r="E100" s="3">
         <v>303000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2929000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2624000</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3459,24 +3704,27 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-136000</v>
+      </c>
+      <c r="E101" s="3">
         <v>7000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-88000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-244000</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3492,24 +3740,27 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>963000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1700000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2851000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2890000</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3522,10 +3773,13 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CTVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CTVA_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,48 +665,48 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -716,33 +716,36 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>17455000</v>
+      </c>
+      <c r="E8" s="3">
         <v>15655000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14217000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13846000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14287000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14091000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13896000</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -752,33 +755,36 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>10436000</v>
+      </c>
+      <c r="E9" s="3">
         <v>9220000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8507000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8575000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9948000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8292000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8283000</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -788,33 +794,36 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>7019000</v>
+      </c>
+      <c r="E10" s="3">
         <v>6435000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5710000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5271000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4339000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5799000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5613000</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -824,9 +833,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,32 +853,33 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1216000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1187000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1142000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1147000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1355000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1509000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1507000</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -876,9 +889,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -912,33 +928,36 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>345000</v>
+      </c>
+      <c r="E14" s="3">
         <v>268000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>337000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>915000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6208000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>488000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>527000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -948,33 +967,36 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>702000</v>
+      </c>
+      <c r="E15" s="3">
         <v>722000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>682000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>475000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>391000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>270000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>247000</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
@@ -984,9 +1006,12 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -998,32 +1023,33 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15872000</v>
+      </c>
+      <c r="E17" s="3">
         <v>14606000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13711000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14177000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>20943000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13503000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13474000</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1033,33 +1059,36 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1583000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1049000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>506000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-331000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6656000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>588000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>422000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1069,9 +1098,12 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1086,32 +1118,33 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1327000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>214000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>151000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>187000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-899000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-73000</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1121,27 +1154,30 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2728000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3619000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1897000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1419000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3679000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1157,33 +1193,36 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E22" s="3">
         <v>30000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>45000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>136000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>337000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>74000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>101000</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1193,33 +1232,36 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1426000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2346000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>675000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-316000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6806000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-385000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>248000</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1229,33 +1271,36 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>210000</v>
+      </c>
+      <c r="E24" s="3">
         <v>524000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-81000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-46000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-31000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2946000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-273000</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,9 +1310,12 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1301,33 +1349,36 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1216000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1822000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>756000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-270000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6775000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2561000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>521000</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1337,33 +1388,36 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1205000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1812000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>736000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-288000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6813000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2526000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>496000</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1373,9 +1427,12 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1409,27 +1466,30 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-53000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-55000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-671000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>1748000</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1442,12 +1502,15 @@
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1481,9 +1544,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1517,33 +1583,36 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1327000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-214000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-151000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-187000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>899000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>73000</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1553,33 +1622,36 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1147000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1759000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>681000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-959000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5065000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2526000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>496000</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1589,9 +1661,12 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1625,33 +1700,36 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1147000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1759000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>681000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-959000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5065000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2526000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>496000</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1661,38 +1739,41 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1702,9 +1783,12 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1719,8 +1803,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1735,26 +1820,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3191000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4459000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3526000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1764000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2270000</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1770,26 +1856,29 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E42" s="3">
         <v>86000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>269000</v>
-      </c>
-      <c r="F42" s="3">
-        <v>5000</v>
       </c>
       <c r="G42" s="3">
         <v>5000</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+      <c r="H42" s="3">
+        <v>5000</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1806,27 +1895,30 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5727000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4811000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4926000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5528000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5260000</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1842,27 +1934,30 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6811000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5180000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4882000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5032000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5310000</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1878,27 +1973,30 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>942000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1010000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1165000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1190000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10127000</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1914,27 +2012,30 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16795000</v>
+      </c>
+      <c r="E46" s="3">
         <v>15546000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14768000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>13519000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>22972000</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1950,27 +2051,30 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E47" s="3">
         <v>76000</v>
-      </c>
-      <c r="E47" s="3">
-        <v>66000</v>
       </c>
       <c r="F47" s="3">
         <v>66000</v>
       </c>
       <c r="G47" s="3">
+        <v>66000</v>
+      </c>
+      <c r="H47" s="3">
         <v>138000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1986,27 +2090,30 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4714000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4787000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4917000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5101000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4544000</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,27 +2129,30 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>19301000</v>
+      </c>
+      <c r="E49" s="3">
         <v>20151000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>21016000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>21653000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>22248000</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2058,9 +2168,12 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2094,9 +2207,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2130,27 +2246,30 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1642000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1784000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1882000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2058000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>58781000</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2166,9 +2285,12 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2202,27 +2324,30 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>42618000</v>
+      </c>
+      <c r="E54" s="3">
         <v>42344000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>42649000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>42397000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>108683000</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2238,9 +2363,12 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2255,8 +2383,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2271,26 +2400,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4895000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4126000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3615000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3702000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3798000</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2306,27 +2436,30 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E58" s="3">
         <v>17000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2154000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2342,27 +2475,30 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5825000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5415000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4930000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4529000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7358000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2378,27 +2514,30 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10744000</v>
+      </c>
+      <c r="E60" s="3">
         <v>9558000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8548000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8238000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13310000</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,27 +2553,30 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1283000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1100000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1102000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>115000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5784000</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2450,27 +2592,30 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5050000</v>
+      </c>
+      <c r="E62" s="3">
         <v>6063000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7936000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9489000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8952000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2486,9 +2631,12 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2522,9 +2670,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2558,9 +2709,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2594,27 +2748,30 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17316000</v>
+      </c>
+      <c r="E66" s="3">
         <v>16960000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17825000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18088000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>34023000</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2630,9 +2787,12 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2647,8 +2807,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2682,9 +2843,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2718,9 +2882,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2754,9 +2921,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2790,26 +2960,29 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>250000</v>
+      </c>
+      <c r="E72" s="3">
         <v>524000</v>
       </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
       <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
         <v>-425000</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+      <c r="H72" s="3">
+        <v>0</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2823,12 +2996,15 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2862,9 +3038,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2898,9 +3077,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2934,27 +3116,30 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25302000</v>
+      </c>
+      <c r="E76" s="3">
         <v>25384000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>24824000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>24309000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>74660000</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2970,9 +3155,12 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3006,38 +3194,41 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3047,33 +3238,36 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1147000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1759000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>681000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-959000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5065000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2526000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>496000</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3083,9 +3277,12 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3100,26 +3297,27 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1223000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1243000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1177000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1599000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2790000</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3135,9 +3333,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3171,9 +3372,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3207,9 +3411,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3243,9 +3450,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3279,9 +3489,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3315,27 +3528,30 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>872000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2727000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2064000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1070000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>483000</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3348,12 +3564,15 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3368,26 +3587,27 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-605000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-573000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-475000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1163000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1501000</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3400,12 +3620,15 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3439,9 +3662,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3475,27 +3701,30 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-632000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-362000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-674000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-904000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-505000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3511,9 +3740,12 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3528,23 +3760,24 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-418000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-397000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-388000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-194000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -3563,9 +3796,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3599,9 +3835,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3635,9 +3874,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3671,27 +3913,30 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1180000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1266000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>303000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2929000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2624000</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3707,27 +3952,30 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-278000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-136000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>7000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-88000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-244000</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3743,27 +3991,30 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1218000</v>
+      </c>
+      <c r="E102" s="3">
         <v>963000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1700000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2851000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2890000</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3776,10 +4027,13 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
